--- a/Analyzed/try2/data_2006.xlsx
+++ b/Analyzed/try2/data_2006.xlsx
@@ -541,13 +541,13 @@
         <v>1215.156</v>
       </c>
       <c r="L2">
-        <v>54.7</v>
+        <v>1914.5</v>
       </c>
       <c r="M2">
         <v>50.22612703993459</v>
       </c>
       <c r="N2">
-        <v>62.79000000000001</v>
+        <v>1820.91</v>
       </c>
       <c r="O2">
         <v>962.47</v>
@@ -580,10 +580,10 @@
         <v>6</v>
       </c>
       <c r="Y2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA2">
         <v>3</v>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="AC2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -632,13 +632,13 @@
         <v>1665.863</v>
       </c>
       <c r="L3">
-        <v>51.1</v>
+        <v>1788.5</v>
       </c>
       <c r="M3">
         <v>49.53936606914295</v>
       </c>
       <c r="N3">
-        <v>53.29000000000001</v>
+        <v>1545.41</v>
       </c>
       <c r="O3">
         <v>889.29</v>
@@ -671,10 +671,10 @@
         <v>3</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>3120.88</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>1925</v>
       </c>
       <c r="M4">
         <v>51.33285484450194</v>
       </c>
       <c r="N4">
-        <v>74.36</v>
+        <v>2156.44</v>
       </c>
       <c r="O4">
         <v>912.58</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>1623.753</v>
       </c>
       <c r="L5">
-        <v>45.7</v>
+        <v>1599.5</v>
       </c>
       <c r="M5">
         <v>58.34829829703829</v>
       </c>
       <c r="N5">
-        <v>66.46000000000001</v>
+        <v>1927.34</v>
       </c>
       <c r="O5">
         <v>902.33</v>
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="Y5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <v>2</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="AC5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>836.6650000000001</v>
       </c>
       <c r="L6">
-        <v>45.2</v>
+        <v>1582</v>
       </c>
       <c r="M6">
         <v>59.51334817463901</v>
       </c>
       <c r="N6">
-        <v>78.01000000000001</v>
+        <v>2262.29</v>
       </c>
       <c r="O6">
         <v>828.64</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA6">
         <v>3</v>
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>2173.126</v>
       </c>
       <c r="L7">
-        <v>52.1</v>
+        <v>1823.5</v>
       </c>
       <c r="M7">
         <v>56.45371922187248</v>
       </c>
       <c r="N7">
-        <v>86.61000000000001</v>
+        <v>2511.690000000001</v>
       </c>
       <c r="O7">
         <v>1096.77</v>
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="AC7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>1551.036</v>
       </c>
       <c r="L8">
-        <v>48.40000000000001</v>
+        <v>1694</v>
       </c>
       <c r="M8">
         <v>60.02290591530851</v>
       </c>
       <c r="N8">
-        <v>72.67</v>
+        <v>2107.43</v>
       </c>
       <c r="O8">
         <v>912.16</v>
@@ -1126,10 +1126,10 @@
         <v>5</v>
       </c>
       <c r="Y8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -1138,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="AC8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1178,13 +1178,13 @@
         <v>1022.358</v>
       </c>
       <c r="L9">
-        <v>46.2</v>
+        <v>1617</v>
       </c>
       <c r="M9">
         <v>66.84463081436162</v>
       </c>
       <c r="N9">
-        <v>67.35000000000001</v>
+        <v>1953.15</v>
       </c>
       <c r="O9">
         <v>1289.66</v>
@@ -1217,10 +1217,10 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA9">
         <v>2</v>
